--- a/sample.xlsx
+++ b/sample.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="4994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="4995">
   <si>
     <t>UNA-2010-0066</t>
   </si>
@@ -17550,6 +17550,9 @@
   <si>
     <t>UNA-2016-0181</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>24/03/2017</t>
   </si>
 </sst>
 </file>
@@ -18352,8 +18355,8 @@
   <dimension ref="A1:M1491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1471" sqref="D1471"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19241,7 +19244,7 @@
         <v>4550</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>4534</v>
+        <v>4994</v>
       </c>
       <c r="F27" s="88" t="s">
         <v>4518</v>
@@ -19272,7 +19275,7 @@
         <v>3905</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>4536</v>
+        <v>4994</v>
       </c>
       <c r="F28" s="88" t="s">
         <v>4518</v>
@@ -19303,7 +19306,7 @@
         <v>4551</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>4536</v>
+        <v>4994</v>
       </c>
       <c r="F29" s="88" t="s">
         <v>4540</v>
@@ -19334,7 +19337,7 @@
         <v>4552</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>4536</v>
+        <v>4994</v>
       </c>
       <c r="F30" s="88" t="s">
         <v>4512</v>
@@ -19365,7 +19368,7 @@
         <v>4553</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>4555</v>
+        <v>4994</v>
       </c>
       <c r="F31" s="88" t="s">
         <v>731</v>
@@ -20204,11 +20207,11 @@
         <v>3352</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" ref="I57:I120" si="2">IF(F57="MB","MA","---")</f>
+        <f t="shared" ref="I57:I65" si="2">IF(F57="MB","MA","---")</f>
         <v>---</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" ref="K57:K120" si="3">IF(F57="MB","2", IF(F57="","", "1"))</f>
+        <f t="shared" ref="K57:K65" si="3">IF(F57="MB","2", IF(F57="","", "1"))</f>
         <v>1</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="4995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7524" uniqueCount="4999">
   <si>
     <t>UNA-2010-0066</t>
   </si>
@@ -17553,6 +17553,18 @@
   </si>
   <si>
     <t>24/03/2017</t>
+  </si>
+  <si>
+    <t>2016A-0065</t>
+  </si>
+  <si>
+    <t>2016A-0066</t>
+  </si>
+  <si>
+    <t>17/01/2016</t>
+  </si>
+  <si>
+    <t>16/01/2016</t>
   </si>
 </sst>
 </file>
@@ -18355,8 +18367,8 @@
   <dimension ref="A1:M1491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27:E31"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20452,7 +20464,7 @@
         <v>3834</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>4595</v>
+        <v>4997</v>
       </c>
       <c r="F65" s="89" t="s">
         <v>981</v>
@@ -20470,16 +20482,66 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="C66" s="3"/>
-      <c r="D66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4995</v>
+      </c>
+      <c r="D66" s="89" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>4595</v>
+      </c>
+      <c r="F66" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G66" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I67" si="4">IF(F66="MB","MA","---")</f>
+        <v>---</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K67" si="5">IF(F66="MB","2", IF(F66="","", "1"))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="C67" s="3"/>
-      <c r="D67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>4996</v>
+      </c>
+      <c r="D67" s="89" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>4998</v>
+      </c>
+      <c r="F67" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G67" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="4"/>
+        <v>---</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:11">
       <c r="C68" s="3"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Code Ref." sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Application!$A$1:$L$1491</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Application!$A$1:$L$1496</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PartTime Staff List'!$A$1:$H$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Staff List'!$A$1:$I$1214</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Application!$1:$1</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7524" uniqueCount="4999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7558" uniqueCount="5002">
   <si>
     <t>UNA-2010-0066</t>
   </si>
@@ -17565,6 +17565,15 @@
   </si>
   <si>
     <t>16/01/2016</t>
+  </si>
+  <si>
+    <t>29/03/2017</t>
+  </si>
+  <si>
+    <t>30/03/2017</t>
+  </si>
+  <si>
+    <t>29/04/2017</t>
   </si>
 </sst>
 </file>
@@ -18364,11 +18373,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1491"/>
+  <dimension ref="A1:M1496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20179,10 +20188,10 @@
         <v>4271</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>4591</v>
+        <v>4999</v>
       </c>
       <c r="F56" s="89" t="s">
-        <v>4592</v>
+        <v>731</v>
       </c>
       <c r="G56" s="89" t="s">
         <v>3352</v>
@@ -20198,93 +20207,87 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>2753</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="D57" s="89" t="s">
-        <v>4590</v>
+        <v>4271</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>4591</v>
+        <v>4999</v>
       </c>
       <c r="F57" s="89" t="s">
-        <v>4592</v>
+        <v>2133</v>
       </c>
       <c r="G57" s="89" t="s">
         <v>3352</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" ref="I57:I65" si="2">IF(F57="MB","MA","---")</f>
+        <f t="shared" ref="I57:I61" si="2">IF(F57="MB","MA","---")</f>
         <v>---</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" ref="K57:K65" si="3">IF(F57="MB","2", IF(F57="","", "1"))</f>
+        <f t="shared" ref="K57:K61" si="3">IF(F57="MB","2", IF(F57="","", "1"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>2753</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
       <c r="D58" s="89" t="s">
-        <v>4593</v>
+        <v>4271</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>4591</v>
+        <v>4999</v>
       </c>
       <c r="F58" s="89" t="s">
-        <v>4504</v>
+        <v>981</v>
       </c>
       <c r="G58" s="89" t="s">
-        <v>4516</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>4604</v>
+        <v>3352</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>MA</v>
-      </c>
-      <c r="J58" t="s">
-        <v>4223</v>
+        <v>---</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>2753</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
       <c r="D59" s="89" t="s">
-        <v>4531</v>
+        <v>4271</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>4591</v>
+        <v>4999</v>
       </c>
       <c r="F59" s="89" t="s">
-        <v>4512</v>
+        <v>2131</v>
       </c>
       <c r="G59" s="89" t="s">
-        <v>4516</v>
+        <v>3352</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="2"/>
@@ -20297,202 +20300,220 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>2753</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>4496</v>
+        <v>4492</v>
       </c>
       <c r="D60" s="89" t="s">
-        <v>4594</v>
+        <v>4381</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>4595</v>
+        <v>5000</v>
       </c>
       <c r="F60" s="89" t="s">
-        <v>731</v>
+        <v>2245</v>
       </c>
       <c r="G60" s="89" t="s">
-        <v>3112</v>
+        <v>3352</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>5001</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="2"/>
-        <v>---</v>
+        <v>MA</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1367</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>2753</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4497</v>
+        <v>4492</v>
       </c>
       <c r="D61" s="89" t="s">
-        <v>4596</v>
+        <v>4381</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="F61" s="89" t="s">
-        <v>981</v>
+        <v>2245</v>
       </c>
       <c r="G61" s="89" t="s">
-        <v>970</v>
+        <v>3352</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>4999</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="2"/>
-        <v>---</v>
+        <v>MA</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1367</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>2753</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>4498</v>
+        <v>4493</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>3834</v>
+        <v>4590</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="F62" s="89" t="s">
-        <v>981</v>
+        <v>4592</v>
       </c>
       <c r="G62" s="89" t="s">
-        <v>685</v>
+        <v>3352</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I62:I70" si="4">IF(F62="MB","MA","---")</f>
         <v>---</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K62:K70" si="5">IF(F62="MB","2", IF(F62="","", "1"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>2753</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>4499</v>
+        <v>4494</v>
       </c>
       <c r="D63" s="89" t="s">
-        <v>3770</v>
+        <v>4593</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="F63" s="89" t="s">
-        <v>981</v>
+        <v>4504</v>
       </c>
       <c r="G63" s="89" t="s">
-        <v>2718</v>
+        <v>4516</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>4604</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
-        <v>---</v>
+        <f t="shared" si="4"/>
+        <v>MA</v>
+      </c>
+      <c r="J63" t="s">
+        <v>4223</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>2753</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>4500</v>
+        <v>4495</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>4061</v>
+        <v>4531</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="F64" s="89" t="s">
-        <v>981</v>
+        <v>4512</v>
       </c>
       <c r="G64" s="89" t="s">
-        <v>4597</v>
+        <v>4516</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>---</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>2753</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>4501</v>
+        <v>4496</v>
       </c>
       <c r="D65" s="89" t="s">
-        <v>3834</v>
+        <v>4594</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>4997</v>
+        <v>4595</v>
       </c>
       <c r="F65" s="89" t="s">
-        <v>981</v>
+        <v>731</v>
       </c>
       <c r="G65" s="89" t="s">
-        <v>685</v>
+        <v>3112</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>---</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>2753</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>4995</v>
+        <v>4497</v>
       </c>
       <c r="D66" s="89" t="s">
-        <v>3834</v>
+        <v>4596</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>4595</v>
@@ -20501,32 +20522,32 @@
         <v>981</v>
       </c>
       <c r="G66" s="89" t="s">
-        <v>685</v>
+        <v>970</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I67" si="4">IF(F66="MB","MA","---")</f>
+        <f t="shared" si="4"/>
         <v>---</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K67" si="5">IF(F66="MB","2", IF(F66="","", "1"))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>2753</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4996</v>
+        <v>4498</v>
       </c>
       <c r="D67" s="89" t="s">
         <v>3834</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>4998</v>
+        <v>4595</v>
       </c>
       <c r="F67" s="89" t="s">
         <v>981</v>
@@ -20544,34 +20565,159 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="C68" s="3"/>
-      <c r="D68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D68" s="89" t="s">
+        <v>3770</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>4595</v>
+      </c>
+      <c r="F68" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G68" s="89" t="s">
+        <v>2718</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="4"/>
+        <v>---</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="C69" s="3"/>
-      <c r="D69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D69" s="89" t="s">
+        <v>4061</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>4595</v>
+      </c>
+      <c r="F69" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G69" s="89" t="s">
+        <v>4597</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="4"/>
+        <v>---</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="C70" s="3"/>
-      <c r="D70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D70" s="89" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>4997</v>
+      </c>
+      <c r="F70" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G70" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="4"/>
+        <v>---</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="C71" s="3"/>
-      <c r="D71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4995</v>
+      </c>
+      <c r="D71" s="89" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>4595</v>
+      </c>
+      <c r="F71" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G71" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" ref="I71:I72" si="6">IF(F71="MB","MA","---")</f>
+        <v>---</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" ref="K71:K72" si="7">IF(F71="MB","2", IF(F71="","", "1"))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="C72" s="3"/>
-      <c r="D72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>4996</v>
+      </c>
+      <c r="D72" s="89" t="s">
+        <v>3834</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>4998</v>
+      </c>
+      <c r="F72" s="89" t="s">
+        <v>981</v>
+      </c>
+      <c r="G72" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="C73" s="3"/>
@@ -20643,6 +20789,7 @@
       <c r="C84" s="3"/>
       <c r="D84" s="89"/>
       <c r="F84" s="89"/>
+      <c r="G84" s="89"/>
     </row>
     <row r="85" spans="3:10">
       <c r="C85" s="3"/>
@@ -20672,8 +20819,6 @@
       <c r="C89" s="3"/>
       <c r="D89" s="89"/>
       <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="J89" s="89"/>
     </row>
     <row r="90" spans="3:10">
       <c r="C90" s="3"/>
@@ -20704,6 +20849,7 @@
       <c r="D94" s="89"/>
       <c r="F94" s="89"/>
       <c r="G94" s="89"/>
+      <c r="J94" s="89"/>
     </row>
     <row r="95" spans="3:10">
       <c r="C95" s="3"/>
@@ -21160,7 +21306,6 @@
       <c r="D170" s="89"/>
       <c r="F170" s="89"/>
       <c r="G170" s="89"/>
-      <c r="J170" s="89"/>
     </row>
     <row r="171" spans="3:10">
       <c r="C171" s="3"/>
@@ -21173,34 +21318,31 @@
       <c r="D172" s="89"/>
       <c r="F172" s="89"/>
       <c r="G172" s="89"/>
-      <c r="J172" s="89"/>
     </row>
     <row r="173" spans="3:10">
       <c r="C173" s="3"/>
       <c r="D173" s="89"/>
       <c r="F173" s="89"/>
       <c r="G173" s="89"/>
-      <c r="J173" s="89"/>
     </row>
     <row r="174" spans="3:10">
       <c r="C174" s="3"/>
       <c r="D174" s="89"/>
       <c r="F174" s="89"/>
       <c r="G174" s="89"/>
-      <c r="J174" s="89"/>
     </row>
     <row r="175" spans="3:10">
       <c r="C175" s="3"/>
       <c r="D175" s="89"/>
       <c r="F175" s="89"/>
       <c r="G175" s="89"/>
+      <c r="J175" s="89"/>
     </row>
     <row r="176" spans="3:10">
       <c r="C176" s="3"/>
       <c r="D176" s="89"/>
       <c r="F176" s="89"/>
       <c r="G176" s="89"/>
-      <c r="J176" s="89"/>
     </row>
     <row r="177" spans="3:10">
       <c r="C177" s="3"/>
@@ -21221,6 +21363,7 @@
       <c r="D179" s="89"/>
       <c r="F179" s="89"/>
       <c r="G179" s="89"/>
+      <c r="J179" s="89"/>
     </row>
     <row r="180" spans="3:10">
       <c r="C180" s="3"/>
@@ -21233,18 +21376,21 @@
       <c r="D181" s="89"/>
       <c r="F181" s="89"/>
       <c r="G181" s="89"/>
+      <c r="J181" s="89"/>
     </row>
     <row r="182" spans="3:10">
       <c r="C182" s="3"/>
       <c r="D182" s="89"/>
       <c r="F182" s="89"/>
       <c r="G182" s="89"/>
+      <c r="J182" s="89"/>
     </row>
     <row r="183" spans="3:10">
       <c r="C183" s="3"/>
       <c r="D183" s="89"/>
       <c r="F183" s="89"/>
       <c r="G183" s="89"/>
+      <c r="J183" s="89"/>
     </row>
     <row r="184" spans="3:10">
       <c r="C184" s="3"/>
@@ -21347,7 +21493,6 @@
       <c r="D200" s="89"/>
       <c r="F200" s="89"/>
       <c r="G200" s="89"/>
-      <c r="J200" s="89"/>
     </row>
     <row r="201" spans="3:10">
       <c r="C201" s="3"/>
@@ -21378,6 +21523,7 @@
       <c r="D205" s="89"/>
       <c r="F205" s="89"/>
       <c r="G205" s="89"/>
+      <c r="J205" s="89"/>
     </row>
     <row r="206" spans="3:10">
       <c r="C206" s="3"/>
@@ -21462,14 +21608,12 @@
       <c r="D219" s="89"/>
       <c r="F219" s="89"/>
       <c r="G219" s="89"/>
-      <c r="J219" s="61"/>
     </row>
     <row r="220" spans="3:10">
       <c r="C220" s="3"/>
       <c r="D220" s="89"/>
       <c r="F220" s="89"/>
       <c r="G220" s="89"/>
-      <c r="J220" s="61"/>
     </row>
     <row r="221" spans="3:10">
       <c r="C221" s="3"/>
@@ -21526,6 +21670,7 @@
       <c r="D229" s="89"/>
       <c r="F229" s="89"/>
       <c r="G229" s="89"/>
+      <c r="J229" s="61"/>
     </row>
     <row r="230" spans="3:10">
       <c r="C230" s="3"/>
@@ -21563,6 +21708,7 @@
       <c r="D235" s="89"/>
       <c r="F235" s="89"/>
       <c r="G235" s="89"/>
+      <c r="J235" s="61"/>
     </row>
     <row r="236" spans="3:10">
       <c r="C236" s="3"/>
@@ -22469,7 +22615,6 @@
       <c r="D386" s="89"/>
       <c r="F386" s="89"/>
       <c r="G386" s="89"/>
-      <c r="L386" s="2"/>
     </row>
     <row r="387" spans="3:12">
       <c r="C387" s="3"/>
@@ -22482,14 +22627,12 @@
       <c r="D388" s="89"/>
       <c r="F388" s="89"/>
       <c r="G388" s="89"/>
-      <c r="L388" s="29"/>
     </row>
     <row r="389" spans="3:12">
       <c r="C389" s="3"/>
       <c r="D389" s="89"/>
       <c r="F389" s="89"/>
       <c r="G389" s="89"/>
-      <c r="L389" s="29"/>
     </row>
     <row r="390" spans="3:12">
       <c r="C390" s="3"/>
@@ -22502,6 +22645,7 @@
       <c r="D391" s="89"/>
       <c r="F391" s="89"/>
       <c r="G391" s="89"/>
+      <c r="L391" s="2"/>
     </row>
     <row r="392" spans="3:12">
       <c r="C392" s="3"/>
@@ -22514,12 +22658,14 @@
       <c r="D393" s="89"/>
       <c r="F393" s="89"/>
       <c r="G393" s="89"/>
+      <c r="L393" s="29"/>
     </row>
     <row r="394" spans="3:12">
       <c r="C394" s="3"/>
       <c r="D394" s="89"/>
       <c r="F394" s="89"/>
       <c r="G394" s="89"/>
+      <c r="L394" s="29"/>
     </row>
     <row r="395" spans="3:12">
       <c r="C395" s="3"/>
@@ -22580,7 +22726,6 @@
       <c r="D404" s="89"/>
       <c r="F404" s="89"/>
       <c r="G404" s="89"/>
-      <c r="J404" s="89"/>
     </row>
     <row r="405" spans="3:10">
       <c r="C405" s="3"/>
@@ -22642,6 +22787,7 @@
       <c r="D414" s="89"/>
       <c r="F414" s="89"/>
       <c r="G414" s="89"/>
+      <c r="J414" s="89"/>
     </row>
     <row r="415" spans="3:10">
       <c r="C415" s="3"/>
@@ -22972,14 +23118,12 @@
       <c r="D469" s="89"/>
       <c r="F469" s="89"/>
       <c r="G469" s="89"/>
-      <c r="J469" s="89"/>
     </row>
     <row r="470" spans="3:10">
       <c r="C470" s="3"/>
       <c r="D470" s="89"/>
       <c r="F470" s="89"/>
       <c r="G470" s="89"/>
-      <c r="J470" s="89"/>
     </row>
     <row r="471" spans="3:10">
       <c r="C471" s="3"/>
@@ -23004,12 +23148,14 @@
       <c r="D474" s="89"/>
       <c r="F474" s="89"/>
       <c r="G474" s="89"/>
+      <c r="J474" s="89"/>
     </row>
     <row r="475" spans="3:10">
       <c r="C475" s="3"/>
       <c r="D475" s="89"/>
       <c r="F475" s="89"/>
       <c r="G475" s="89"/>
+      <c r="J475" s="89"/>
     </row>
     <row r="476" spans="3:10">
       <c r="C476" s="3"/>
@@ -24042,7 +24188,6 @@
       <c r="D647" s="89"/>
       <c r="F647" s="89"/>
       <c r="G647" s="89"/>
-      <c r="J647" s="89"/>
     </row>
     <row r="648" spans="3:10">
       <c r="C648" s="3"/>
@@ -24073,6 +24218,7 @@
       <c r="D652" s="89"/>
       <c r="F652" s="89"/>
       <c r="G652" s="89"/>
+      <c r="J652" s="89"/>
     </row>
     <row r="653" spans="3:10">
       <c r="C653" s="3"/>
@@ -24157,7 +24303,6 @@
       <c r="D666" s="89"/>
       <c r="F666" s="89"/>
       <c r="G666" s="89"/>
-      <c r="J666" s="89"/>
     </row>
     <row r="667" spans="3:10">
       <c r="C667" s="3"/>
@@ -24188,6 +24333,7 @@
       <c r="D671" s="89"/>
       <c r="F671" s="89"/>
       <c r="G671" s="89"/>
+      <c r="J671" s="89"/>
     </row>
     <row r="672" spans="3:10">
       <c r="C672" s="3"/>
@@ -24383,53 +24529,68 @@
     </row>
     <row r="704" spans="3:7">
       <c r="C704" s="3"/>
-    </row>
-    <row r="705" spans="3:3">
+      <c r="D704" s="89"/>
+      <c r="F704" s="89"/>
+      <c r="G704" s="89"/>
+    </row>
+    <row r="705" spans="3:7">
       <c r="C705" s="3"/>
-    </row>
-    <row r="706" spans="3:3">
+      <c r="D705" s="89"/>
+      <c r="F705" s="89"/>
+      <c r="G705" s="89"/>
+    </row>
+    <row r="706" spans="3:7">
       <c r="C706" s="3"/>
-    </row>
-    <row r="707" spans="3:3">
+      <c r="D706" s="89"/>
+      <c r="F706" s="89"/>
+      <c r="G706" s="89"/>
+    </row>
+    <row r="707" spans="3:7">
       <c r="C707" s="3"/>
-    </row>
-    <row r="708" spans="3:3">
+      <c r="D707" s="89"/>
+      <c r="F707" s="89"/>
+      <c r="G707" s="89"/>
+    </row>
+    <row r="708" spans="3:7">
       <c r="C708" s="3"/>
-    </row>
-    <row r="709" spans="3:3">
+      <c r="D708" s="89"/>
+      <c r="F708" s="89"/>
+      <c r="G708" s="89"/>
+    </row>
+    <row r="709" spans="3:7">
       <c r="C709" s="3"/>
     </row>
-    <row r="710" spans="3:3">
+    <row r="710" spans="3:7">
       <c r="C710" s="3"/>
     </row>
-    <row r="711" spans="3:3">
+    <row r="711" spans="3:7">
       <c r="C711" s="3"/>
     </row>
-    <row r="712" spans="3:3">
+    <row r="712" spans="3:7">
       <c r="C712" s="3"/>
     </row>
-    <row r="713" spans="3:3">
+    <row r="713" spans="3:7">
       <c r="C713" s="3"/>
     </row>
-    <row r="714" spans="3:3">
+    <row r="714" spans="3:7">
       <c r="C714" s="3"/>
     </row>
-    <row r="715" spans="3:3">
+    <row r="715" spans="3:7">
       <c r="C715" s="3"/>
     </row>
-    <row r="716" spans="3:3">
+    <row r="716" spans="3:7">
       <c r="C716" s="3"/>
     </row>
-    <row r="717" spans="3:3">
+    <row r="717" spans="3:7">
       <c r="C717" s="3"/>
     </row>
-    <row r="718" spans="3:3">
+    <row r="718" spans="3:7">
       <c r="C718" s="3"/>
     </row>
-    <row r="719" spans="3:3">
+    <row r="719" spans="3:7">
       <c r="C719" s="3"/>
     </row>
-    <row r="720" spans="3:3">
+    <row r="720" spans="3:7">
       <c r="C720" s="3"/>
     </row>
     <row r="721" spans="3:3">
@@ -24704,7 +24865,6 @@
     </row>
     <row r="811" spans="3:13">
       <c r="C811" s="3"/>
-      <c r="M811" s="29"/>
     </row>
     <row r="812" spans="3:13">
       <c r="C812" s="3"/>
@@ -24720,6 +24880,7 @@
     </row>
     <row r="816" spans="3:13">
       <c r="C816" s="3"/>
+      <c r="M816" s="29"/>
     </row>
     <row r="817" spans="3:3">
       <c r="C817" s="3"/>
@@ -26746,8 +26907,23 @@
     <row r="1491" spans="3:3">
       <c r="C1491" s="3"/>
     </row>
+    <row r="1492" spans="3:3">
+      <c r="C1492" s="3"/>
+    </row>
+    <row r="1493" spans="3:3">
+      <c r="C1493" s="3"/>
+    </row>
+    <row r="1494" spans="3:3">
+      <c r="C1494" s="3"/>
+    </row>
+    <row r="1495" spans="3:3">
+      <c r="C1495" s="3"/>
+    </row>
+    <row r="1496" spans="3:3">
+      <c r="C1496" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1491"/>
+  <autoFilter ref="A1:L1496"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.43" right="0.75" top="1" bottom="0.51" header="0.5" footer="0.19"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="2490" windowWidth="15570" windowHeight="4950"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7564" uniqueCount="5004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7854" uniqueCount="5149">
   <si>
     <t>UNA-2010-0066</t>
   </si>
@@ -17579,6 +17579,441 @@
   </si>
   <si>
     <t>ITD</t>
+  </si>
+  <si>
+    <t>2016A-0068</t>
+  </si>
+  <si>
+    <t>2016A-0069</t>
+  </si>
+  <si>
+    <t>2016A-0070</t>
+  </si>
+  <si>
+    <t>2016A-0071</t>
+  </si>
+  <si>
+    <t>2016A-0072</t>
+  </si>
+  <si>
+    <t>2016A-0073</t>
+  </si>
+  <si>
+    <t>2016A-0074</t>
+  </si>
+  <si>
+    <t>2016A-0075</t>
+  </si>
+  <si>
+    <t>2016A-0076</t>
+  </si>
+  <si>
+    <t>2016A-0077</t>
+  </si>
+  <si>
+    <t>2016A-0078</t>
+  </si>
+  <si>
+    <t>2016A-0079</t>
+  </si>
+  <si>
+    <t>2016A-0080</t>
+  </si>
+  <si>
+    <t>2016A-0081</t>
+  </si>
+  <si>
+    <t>2016A-0082</t>
+  </si>
+  <si>
+    <t>2016A-0083</t>
+  </si>
+  <si>
+    <t>2016A-0084</t>
+  </si>
+  <si>
+    <t>2016A-0085</t>
+  </si>
+  <si>
+    <t>2016A-0086</t>
+  </si>
+  <si>
+    <t>2016A-0087</t>
+  </si>
+  <si>
+    <t>2016A-0088</t>
+  </si>
+  <si>
+    <t>2016A-0089</t>
+  </si>
+  <si>
+    <t>2016A-0090</t>
+  </si>
+  <si>
+    <t>2016A-0091</t>
+  </si>
+  <si>
+    <t>2016A-0092</t>
+  </si>
+  <si>
+    <t>2016A-0093</t>
+  </si>
+  <si>
+    <t>2016A-0094</t>
+  </si>
+  <si>
+    <t>2016A-0095</t>
+  </si>
+  <si>
+    <t>2016A-0096</t>
+  </si>
+  <si>
+    <t>2016A-0097</t>
+  </si>
+  <si>
+    <t>2016A-0098</t>
+  </si>
+  <si>
+    <t>2016A-0099</t>
+  </si>
+  <si>
+    <t>2016A-0100</t>
+  </si>
+  <si>
+    <t>2016A-0101</t>
+  </si>
+  <si>
+    <t>2016A-0102</t>
+  </si>
+  <si>
+    <t>2016A-0103</t>
+  </si>
+  <si>
+    <t>2016A-0104</t>
+  </si>
+  <si>
+    <t>2016A-0105</t>
+  </si>
+  <si>
+    <t>2016A-0106</t>
+  </si>
+  <si>
+    <t>2016A-0107</t>
+  </si>
+  <si>
+    <t>2016A-0108</t>
+  </si>
+  <si>
+    <t>2016A-0109</t>
+  </si>
+  <si>
+    <t>2016A-0110</t>
+  </si>
+  <si>
+    <t>2016A-0111</t>
+  </si>
+  <si>
+    <t>2016A-0112</t>
+  </si>
+  <si>
+    <t>2016A-0113</t>
+  </si>
+  <si>
+    <t>2016A-0114</t>
+  </si>
+  <si>
+    <t>2016A-0115</t>
+  </si>
+  <si>
+    <t>2016A-0116</t>
+  </si>
+  <si>
+    <t>2016A-0117</t>
+  </si>
+  <si>
+    <t>2016A-0118</t>
+  </si>
+  <si>
+    <t>2016A-0119</t>
+  </si>
+  <si>
+    <t>2016A-0120</t>
+  </si>
+  <si>
+    <t>2016A-0121</t>
+  </si>
+  <si>
+    <t>2016A-0122</t>
+  </si>
+  <si>
+    <t>2016A-0123</t>
+  </si>
+  <si>
+    <t>2016A-0124</t>
+  </si>
+  <si>
+    <t>2016A-0125</t>
+  </si>
+  <si>
+    <t>2016A-0126</t>
+  </si>
+  <si>
+    <t>2016A-0127</t>
+  </si>
+  <si>
+    <t>2016A-0128</t>
+  </si>
+  <si>
+    <t>2016A-0129</t>
+  </si>
+  <si>
+    <t>2016A-0130</t>
+  </si>
+  <si>
+    <t>2016A-0131</t>
+  </si>
+  <si>
+    <t>2016A-0132</t>
+  </si>
+  <si>
+    <t>2016A-0133</t>
+  </si>
+  <si>
+    <t>2016A-0134</t>
+  </si>
+  <si>
+    <t>2016A-0135</t>
+  </si>
+  <si>
+    <t>2016A-0136</t>
+  </si>
+  <si>
+    <t>2016A-0137</t>
+  </si>
+  <si>
+    <t>2016A-0138</t>
+  </si>
+  <si>
+    <t>2016A-0139</t>
+  </si>
+  <si>
+    <t>2016A-0140</t>
+  </si>
+  <si>
+    <t>2016A-0141</t>
+  </si>
+  <si>
+    <t>2016A-0142</t>
+  </si>
+  <si>
+    <t>2016A-0143</t>
+  </si>
+  <si>
+    <t>2016A-0144</t>
+  </si>
+  <si>
+    <t>2016A-0145</t>
+  </si>
+  <si>
+    <t>2016A-0146</t>
+  </si>
+  <si>
+    <t>2016A-0147</t>
+  </si>
+  <si>
+    <t>2016A-0148</t>
+  </si>
+  <si>
+    <t>2016A-0149</t>
+  </si>
+  <si>
+    <t>2016A-0150</t>
+  </si>
+  <si>
+    <t>2016A-0151</t>
+  </si>
+  <si>
+    <t>2016A-0152</t>
+  </si>
+  <si>
+    <t>2016A-0153</t>
+  </si>
+  <si>
+    <t>2016A-0154</t>
+  </si>
+  <si>
+    <t>2016A-0155</t>
+  </si>
+  <si>
+    <t>2016A-0156</t>
+  </si>
+  <si>
+    <t>2016A-0157</t>
+  </si>
+  <si>
+    <t>2016A-0158</t>
+  </si>
+  <si>
+    <t>2016A-0159</t>
+  </si>
+  <si>
+    <t>2016A-0160</t>
+  </si>
+  <si>
+    <t>2016A-0161</t>
+  </si>
+  <si>
+    <t>2016A-0162</t>
+  </si>
+  <si>
+    <t>2016A-0163</t>
+  </si>
+  <si>
+    <t>2016A-0164</t>
+  </si>
+  <si>
+    <t>2016A-0165</t>
+  </si>
+  <si>
+    <t>2016A-0166</t>
+  </si>
+  <si>
+    <t>2016A-0167</t>
+  </si>
+  <si>
+    <t>2016A-0168</t>
+  </si>
+  <si>
+    <t>2016A-0169</t>
+  </si>
+  <si>
+    <t>2016A-0170</t>
+  </si>
+  <si>
+    <t>2016A-0171</t>
+  </si>
+  <si>
+    <t>2016A-0172</t>
+  </si>
+  <si>
+    <t>2016A-0173</t>
+  </si>
+  <si>
+    <t>2016A-0174</t>
+  </si>
+  <si>
+    <t>2016A-0175</t>
+  </si>
+  <si>
+    <t>2016A-0176</t>
+  </si>
+  <si>
+    <t>2016A-0177</t>
+  </si>
+  <si>
+    <t>2016A-0178</t>
+  </si>
+  <si>
+    <t>2016A-0179</t>
+  </si>
+  <si>
+    <t>2016A-0180</t>
+  </si>
+  <si>
+    <t>2016A-0181</t>
+  </si>
+  <si>
+    <t>2016A-0182</t>
+  </si>
+  <si>
+    <t>2016A-0183</t>
+  </si>
+  <si>
+    <t>2016A-0184</t>
+  </si>
+  <si>
+    <t>2016A-0185</t>
+  </si>
+  <si>
+    <t>2016A-0186</t>
+  </si>
+  <si>
+    <t>2016A-0187</t>
+  </si>
+  <si>
+    <t>2016A-0188</t>
+  </si>
+  <si>
+    <t>2016A-0189</t>
+  </si>
+  <si>
+    <t>2016A-0190</t>
+  </si>
+  <si>
+    <t>2016A-0191</t>
+  </si>
+  <si>
+    <t>2016A-0192</t>
+  </si>
+  <si>
+    <t>2016A-0193</t>
+  </si>
+  <si>
+    <t>2016A-0194</t>
+  </si>
+  <si>
+    <t>2016A-0195</t>
+  </si>
+  <si>
+    <t>2016A-0196</t>
+  </si>
+  <si>
+    <t>2016A-0197</t>
+  </si>
+  <si>
+    <t>2016A-0198</t>
+  </si>
+  <si>
+    <t>2016A-0199</t>
+  </si>
+  <si>
+    <t>2016A-0200</t>
+  </si>
+  <si>
+    <t>2016A-0201</t>
+  </si>
+  <si>
+    <t>2016A-0202</t>
+  </si>
+  <si>
+    <t>2016A-0203</t>
+  </si>
+  <si>
+    <t>2016A-0204</t>
+  </si>
+  <si>
+    <t>2016A-0205</t>
+  </si>
+  <si>
+    <t>2016A-0206</t>
+  </si>
+  <si>
+    <t>2016A-0207</t>
+  </si>
+  <si>
+    <t>2016A-0208</t>
+  </si>
+  <si>
+    <t>2016A-0209</t>
+  </si>
+  <si>
+    <t>2016A-0210</t>
+  </si>
+  <si>
+    <t>2016A-0211</t>
+  </si>
+  <si>
+    <t>2016A-0212</t>
   </si>
 </sst>
 </file>
@@ -18381,8 +18816,8 @@
   <dimension ref="A1:M1496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I68:K218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20654,11 +21089,11 @@
         <v>685</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I70:I133" si="6">IF(F70="MB","MA","---")</f>
         <v>---</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K70:K133" si="7">IF(F70="MB","2", IF(F70="","", "1"))</f>
         <v>1</v>
       </c>
     </row>
@@ -20685,11 +21120,11 @@
         <v>685</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" ref="I71:I72" si="6">IF(F71="MB","MA","---")</f>
+        <f t="shared" si="6"/>
         <v>---</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" ref="K71:K72" si="7">IF(F71="MB","2", IF(F71="","", "1"))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -20746,916 +21181,3235 @@
       <c r="G73" s="89" t="s">
         <v>5003</v>
       </c>
+      <c r="I73" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="C74" s="3"/>
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5004</v>
+      </c>
       <c r="D74" s="89"/>
       <c r="F74" s="89"/>
       <c r="G74" s="89"/>
+      <c r="I74" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="C75" s="3"/>
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5005</v>
+      </c>
       <c r="D75" s="89"/>
       <c r="F75" s="89"/>
       <c r="G75" s="89"/>
+      <c r="I75" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="C76" s="3"/>
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5006</v>
+      </c>
       <c r="D76" s="89"/>
       <c r="F76" s="89"/>
       <c r="G76" s="89"/>
+      <c r="I76" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="C77" s="3"/>
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5007</v>
+      </c>
       <c r="D77" s="89"/>
       <c r="F77" s="89"/>
       <c r="G77" s="89"/>
+      <c r="I77" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="C78" s="3"/>
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5008</v>
+      </c>
       <c r="D78" s="89"/>
       <c r="F78" s="89"/>
       <c r="G78" s="89"/>
+      <c r="I78" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="C79" s="3"/>
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5009</v>
+      </c>
       <c r="D79" s="89"/>
       <c r="F79" s="89"/>
       <c r="G79" s="89"/>
+      <c r="I79" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="C80" s="3"/>
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5010</v>
+      </c>
       <c r="D80" s="89"/>
       <c r="F80" s="89"/>
       <c r="G80" s="89"/>
-    </row>
-    <row r="81" spans="3:10">
-      <c r="C81" s="3"/>
+      <c r="I80" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>5011</v>
+      </c>
       <c r="D81" s="89"/>
       <c r="F81" s="89"/>
       <c r="G81" s="89"/>
-    </row>
-    <row r="82" spans="3:10">
-      <c r="C82" s="3"/>
+      <c r="I81" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>5012</v>
+      </c>
       <c r="D82" s="89"/>
       <c r="F82" s="89"/>
       <c r="G82" s="89"/>
-    </row>
-    <row r="83" spans="3:10">
-      <c r="C83" s="3"/>
+      <c r="I82" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>5013</v>
+      </c>
       <c r="D83" s="89"/>
       <c r="F83" s="89"/>
       <c r="G83" s="89"/>
-    </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="3"/>
+      <c r="I83" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>5014</v>
+      </c>
       <c r="D84" s="89"/>
       <c r="F84" s="89"/>
       <c r="G84" s="89"/>
-    </row>
-    <row r="85" spans="3:10">
-      <c r="C85" s="3"/>
+      <c r="I84" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>5015</v>
+      </c>
       <c r="D85" s="89"/>
       <c r="F85" s="89"/>
       <c r="G85" s="89"/>
-    </row>
-    <row r="86" spans="3:10">
-      <c r="C86" s="3"/>
+      <c r="I85" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>5016</v>
+      </c>
       <c r="D86" s="89"/>
       <c r="F86" s="89"/>
       <c r="G86" s="89"/>
-    </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="3"/>
+      <c r="I86" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>5017</v>
+      </c>
       <c r="D87" s="89"/>
       <c r="F87" s="89"/>
       <c r="G87" s="89"/>
-    </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="3"/>
+      <c r="I87" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>5018</v>
+      </c>
       <c r="D88" s="89"/>
       <c r="F88" s="89"/>
       <c r="G88" s="89"/>
-    </row>
-    <row r="89" spans="3:10">
-      <c r="C89" s="3"/>
+      <c r="I88" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>5019</v>
+      </c>
       <c r="D89" s="89"/>
       <c r="F89" s="89"/>
-    </row>
-    <row r="90" spans="3:10">
-      <c r="C90" s="3"/>
+      <c r="I89" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>5020</v>
+      </c>
       <c r="D90" s="89"/>
       <c r="F90" s="89"/>
       <c r="G90" s="89"/>
-    </row>
-    <row r="91" spans="3:10">
-      <c r="C91" s="3"/>
+      <c r="I90" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>5021</v>
+      </c>
       <c r="D91" s="89"/>
       <c r="F91" s="89"/>
       <c r="G91" s="89"/>
-    </row>
-    <row r="92" spans="3:10">
-      <c r="C92" s="3"/>
+      <c r="I91" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>5022</v>
+      </c>
       <c r="D92" s="89"/>
       <c r="F92" s="89"/>
       <c r="G92" s="89"/>
-    </row>
-    <row r="93" spans="3:10">
-      <c r="C93" s="3"/>
+      <c r="I92" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>5023</v>
+      </c>
       <c r="D93" s="89"/>
       <c r="F93" s="89"/>
       <c r="G93" s="89"/>
-    </row>
-    <row r="94" spans="3:10">
-      <c r="C94" s="3"/>
+      <c r="I93" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>88</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>5024</v>
+      </c>
       <c r="D94" s="89"/>
       <c r="F94" s="89"/>
       <c r="G94" s="89"/>
-      <c r="J94" s="89"/>
-    </row>
-    <row r="95" spans="3:10">
-      <c r="C95" s="3"/>
+      <c r="I94" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>5025</v>
+      </c>
       <c r="D95" s="89"/>
       <c r="F95" s="89"/>
       <c r="G95" s="89"/>
-    </row>
-    <row r="96" spans="3:10">
-      <c r="C96" s="3"/>
+      <c r="I95" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>5026</v>
+      </c>
       <c r="D96" s="89"/>
       <c r="F96" s="89"/>
       <c r="G96" s="89"/>
-    </row>
-    <row r="97" spans="3:7">
-      <c r="C97" s="3"/>
+      <c r="I96" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>5027</v>
+      </c>
       <c r="D97" s="89"/>
       <c r="F97" s="89"/>
       <c r="G97" s="89"/>
-    </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="3"/>
+      <c r="I97" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>5028</v>
+      </c>
       <c r="D98" s="89"/>
       <c r="F98" s="89"/>
       <c r="G98" s="89"/>
-    </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="3"/>
+      <c r="I98" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>5029</v>
+      </c>
       <c r="D99" s="89"/>
       <c r="F99" s="89"/>
       <c r="G99" s="89"/>
-    </row>
-    <row r="100" spans="3:7">
-      <c r="C100" s="3"/>
+      <c r="I99" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>5030</v>
+      </c>
       <c r="D100" s="89"/>
       <c r="F100" s="89"/>
       <c r="G100" s="89"/>
-    </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="3"/>
+      <c r="I100" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>5031</v>
+      </c>
       <c r="D101" s="89"/>
       <c r="F101" s="89"/>
       <c r="G101" s="89"/>
-    </row>
-    <row r="102" spans="3:7">
-      <c r="C102" s="3"/>
+      <c r="I101" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>5032</v>
+      </c>
       <c r="D102" s="89"/>
       <c r="F102" s="89"/>
       <c r="G102" s="89"/>
-    </row>
-    <row r="103" spans="3:7">
-      <c r="C103" s="3"/>
+      <c r="I102" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>5033</v>
+      </c>
       <c r="D103" s="89"/>
       <c r="F103" s="89"/>
       <c r="G103" s="89"/>
-    </row>
-    <row r="104" spans="3:7">
-      <c r="C104" s="3"/>
+      <c r="I103" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>5034</v>
+      </c>
       <c r="D104" s="89"/>
       <c r="F104" s="89"/>
       <c r="G104" s="89"/>
-    </row>
-    <row r="105" spans="3:7">
-      <c r="C105" s="3"/>
+      <c r="I104" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>5035</v>
+      </c>
       <c r="D105" s="89"/>
       <c r="F105" s="89"/>
       <c r="G105" s="89"/>
-    </row>
-    <row r="106" spans="3:7">
-      <c r="C106" s="3"/>
+      <c r="I105" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>5036</v>
+      </c>
       <c r="D106" s="89"/>
       <c r="F106" s="89"/>
       <c r="G106" s="89"/>
-    </row>
-    <row r="107" spans="3:7">
-      <c r="C107" s="3"/>
+      <c r="I106" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>5037</v>
+      </c>
       <c r="D107" s="89"/>
       <c r="F107" s="89"/>
       <c r="G107" s="89"/>
-    </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="3"/>
+      <c r="I107" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>102</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>5038</v>
+      </c>
       <c r="D108" s="89"/>
       <c r="F108" s="89"/>
       <c r="G108" s="89"/>
-    </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="3"/>
+      <c r="I108" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>103</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>5039</v>
+      </c>
       <c r="D109" s="89"/>
       <c r="F109" s="89"/>
       <c r="G109" s="89"/>
-    </row>
-    <row r="110" spans="3:7">
-      <c r="C110" s="3"/>
+      <c r="I109" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>5040</v>
+      </c>
       <c r="D110" s="89"/>
       <c r="F110" s="89"/>
       <c r="G110" s="89"/>
-    </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="3"/>
+      <c r="I110" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>5041</v>
+      </c>
       <c r="D111" s="89"/>
       <c r="F111" s="89"/>
       <c r="G111" s="89"/>
-    </row>
-    <row r="112" spans="3:7">
-      <c r="C112" s="3"/>
+      <c r="I111" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>5042</v>
+      </c>
       <c r="D112" s="89"/>
       <c r="F112" s="89"/>
       <c r="G112" s="89"/>
-    </row>
-    <row r="113" spans="3:7">
-      <c r="C113" s="3"/>
+      <c r="I112" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>5043</v>
+      </c>
       <c r="D113" s="89"/>
       <c r="F113" s="89"/>
       <c r="G113" s="89"/>
-    </row>
-    <row r="114" spans="3:7">
-      <c r="C114" s="3"/>
+      <c r="I113" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>5044</v>
+      </c>
       <c r="D114" s="89"/>
       <c r="F114" s="89"/>
       <c r="G114" s="89"/>
-    </row>
-    <row r="115" spans="3:7">
-      <c r="C115" s="3"/>
+      <c r="I114" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>5045</v>
+      </c>
       <c r="D115" s="89"/>
       <c r="F115" s="89"/>
       <c r="G115" s="89"/>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="3"/>
+      <c r="I115" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>5046</v>
+      </c>
       <c r="D116" s="89"/>
       <c r="F116" s="89"/>
       <c r="G116" s="89"/>
-    </row>
-    <row r="117" spans="3:7">
-      <c r="C117" s="3"/>
+      <c r="I116" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>5047</v>
+      </c>
       <c r="D117" s="89"/>
       <c r="F117" s="89"/>
       <c r="G117" s="89"/>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="3"/>
+      <c r="I117" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>5048</v>
+      </c>
       <c r="D118" s="89"/>
       <c r="F118" s="89"/>
       <c r="G118" s="89"/>
-    </row>
-    <row r="119" spans="3:7">
-      <c r="C119" s="3"/>
+      <c r="I118" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>5049</v>
+      </c>
       <c r="D119" s="89"/>
       <c r="F119" s="89"/>
       <c r="G119" s="89"/>
-    </row>
-    <row r="120" spans="3:7">
-      <c r="C120" s="3"/>
+      <c r="I119" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>5050</v>
+      </c>
       <c r="D120" s="89"/>
       <c r="F120" s="89"/>
       <c r="G120" s="89"/>
-    </row>
-    <row r="121" spans="3:7">
-      <c r="C121" s="3"/>
+      <c r="I120" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>5051</v>
+      </c>
       <c r="D121" s="89"/>
       <c r="F121" s="89"/>
       <c r="G121" s="89"/>
-    </row>
-    <row r="122" spans="3:7">
-      <c r="C122" s="3"/>
+      <c r="I121" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>116</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>5052</v>
+      </c>
       <c r="D122" s="89"/>
       <c r="F122" s="89"/>
       <c r="G122" s="89"/>
-    </row>
-    <row r="123" spans="3:7">
-      <c r="C123" s="3"/>
+      <c r="I122" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>117</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>5053</v>
+      </c>
       <c r="D123" s="89"/>
       <c r="F123" s="89"/>
       <c r="G123" s="89"/>
-    </row>
-    <row r="124" spans="3:7">
-      <c r="C124" s="3"/>
+      <c r="I123" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>5054</v>
+      </c>
       <c r="D124" s="89"/>
       <c r="F124" s="89"/>
       <c r="G124" s="89"/>
-    </row>
-    <row r="125" spans="3:7">
-      <c r="C125" s="3"/>
+      <c r="I124" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>5055</v>
+      </c>
       <c r="D125" s="89"/>
       <c r="F125" s="89"/>
       <c r="G125" s="89"/>
-    </row>
-    <row r="126" spans="3:7">
-      <c r="C126" s="3"/>
+      <c r="I125" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>120</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>5056</v>
+      </c>
       <c r="D126" s="89"/>
       <c r="F126" s="89"/>
       <c r="G126" s="89"/>
-    </row>
-    <row r="127" spans="3:7">
-      <c r="C127" s="3"/>
+      <c r="I126" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>121</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>5057</v>
+      </c>
       <c r="D127" s="89"/>
       <c r="F127" s="89"/>
       <c r="G127" s="89"/>
-    </row>
-    <row r="128" spans="3:7">
-      <c r="C128" s="3"/>
+      <c r="I127" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>122</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>5058</v>
+      </c>
       <c r="D128" s="89"/>
       <c r="F128" s="89"/>
       <c r="G128" s="89"/>
-    </row>
-    <row r="129" spans="3:7">
-      <c r="C129" s="3"/>
+      <c r="I128" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>5059</v>
+      </c>
       <c r="D129" s="89"/>
       <c r="F129" s="89"/>
       <c r="G129" s="89"/>
-    </row>
-    <row r="130" spans="3:7">
-      <c r="C130" s="3"/>
+      <c r="I129" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>5060</v>
+      </c>
       <c r="D130" s="89"/>
       <c r="F130" s="89"/>
       <c r="G130" s="89"/>
-    </row>
-    <row r="131" spans="3:7">
-      <c r="C131" s="3"/>
+      <c r="I130" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>125</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>5061</v>
+      </c>
       <c r="D131" s="89"/>
       <c r="F131" s="89"/>
       <c r="G131" s="89"/>
-    </row>
-    <row r="132" spans="3:7">
-      <c r="C132" s="3"/>
+      <c r="I131" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>126</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>5062</v>
+      </c>
       <c r="D132" s="89"/>
       <c r="F132" s="89"/>
       <c r="G132" s="89"/>
-    </row>
-    <row r="133" spans="3:7">
-      <c r="C133" s="3"/>
+      <c r="I132" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>127</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>5063</v>
+      </c>
       <c r="D133" s="89"/>
       <c r="F133" s="89"/>
       <c r="G133" s="89"/>
-    </row>
-    <row r="134" spans="3:7">
-      <c r="C134" s="3"/>
+      <c r="I133" t="str">
+        <f t="shared" si="6"/>
+        <v>---</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>128</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>5064</v>
+      </c>
       <c r="D134" s="89"/>
       <c r="F134" s="89"/>
       <c r="G134" s="89"/>
-    </row>
-    <row r="135" spans="3:7">
-      <c r="C135" s="3"/>
+      <c r="I134" t="str">
+        <f t="shared" ref="I134:I197" si="8">IF(F134="MB","MA","---")</f>
+        <v>---</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" ref="K134:K197" si="9">IF(F134="MB","2", IF(F134="","", "1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>129</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>5065</v>
+      </c>
       <c r="D135" s="89"/>
       <c r="F135" s="89"/>
       <c r="G135" s="89"/>
-    </row>
-    <row r="136" spans="3:7">
-      <c r="C136" s="3"/>
+      <c r="I135" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>130</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>5066</v>
+      </c>
       <c r="D136" s="89"/>
       <c r="F136" s="89"/>
       <c r="G136" s="89"/>
-    </row>
-    <row r="137" spans="3:7">
-      <c r="C137" s="3"/>
+      <c r="I136" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>5067</v>
+      </c>
       <c r="D137" s="89"/>
       <c r="F137" s="89"/>
       <c r="G137" s="89"/>
-    </row>
-    <row r="138" spans="3:7">
-      <c r="C138" s="3"/>
+      <c r="I137" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>132</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>5068</v>
+      </c>
       <c r="D138" s="89"/>
       <c r="F138" s="89"/>
       <c r="G138" s="89"/>
-    </row>
-    <row r="139" spans="3:7">
-      <c r="C139" s="3"/>
+      <c r="I138" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>133</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>5069</v>
+      </c>
       <c r="D139" s="89"/>
       <c r="F139" s="89"/>
       <c r="G139" s="89"/>
-    </row>
-    <row r="140" spans="3:7">
-      <c r="C140" s="3"/>
+      <c r="I139" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>134</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>5070</v>
+      </c>
       <c r="D140" s="89"/>
       <c r="F140" s="89"/>
       <c r="G140" s="89"/>
-    </row>
-    <row r="141" spans="3:7">
-      <c r="C141" s="3"/>
+      <c r="I140" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>135</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>5071</v>
+      </c>
       <c r="D141" s="89"/>
       <c r="F141" s="89"/>
       <c r="G141" s="89"/>
-    </row>
-    <row r="142" spans="3:7">
-      <c r="C142" s="3"/>
+      <c r="I141" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>136</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5072</v>
+      </c>
       <c r="D142" s="89"/>
       <c r="F142" s="89"/>
       <c r="G142" s="89"/>
-    </row>
-    <row r="143" spans="3:7">
-      <c r="C143" s="3"/>
+      <c r="I142" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>137</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>5073</v>
+      </c>
       <c r="D143" s="89"/>
       <c r="F143" s="89"/>
       <c r="G143" s="89"/>
-    </row>
-    <row r="144" spans="3:7">
-      <c r="C144" s="3"/>
+      <c r="I143" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>138</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>5074</v>
+      </c>
       <c r="D144" s="89"/>
       <c r="F144" s="89"/>
       <c r="G144" s="89"/>
-    </row>
-    <row r="145" spans="3:7">
-      <c r="C145" s="3"/>
+      <c r="I144" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>139</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>5075</v>
+      </c>
       <c r="D145" s="89"/>
       <c r="F145" s="89"/>
       <c r="G145" s="89"/>
-    </row>
-    <row r="146" spans="3:7">
-      <c r="C146" s="3"/>
+      <c r="I145" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>140</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>5076</v>
+      </c>
       <c r="D146" s="89"/>
       <c r="F146" s="89"/>
       <c r="G146" s="89"/>
-    </row>
-    <row r="147" spans="3:7">
-      <c r="C147" s="3"/>
+      <c r="I146" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>141</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>5077</v>
+      </c>
       <c r="D147" s="89"/>
       <c r="F147" s="89"/>
       <c r="G147" s="89"/>
-    </row>
-    <row r="148" spans="3:7">
-      <c r="C148" s="3"/>
+      <c r="I147" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>142</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>5078</v>
+      </c>
       <c r="D148" s="89"/>
       <c r="F148" s="89"/>
       <c r="G148" s="89"/>
-    </row>
-    <row r="149" spans="3:7">
-      <c r="C149" s="3"/>
+      <c r="I148" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>143</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>5079</v>
+      </c>
       <c r="D149" s="89"/>
       <c r="F149" s="89"/>
       <c r="G149" s="89"/>
-    </row>
-    <row r="150" spans="3:7">
-      <c r="C150" s="3"/>
+      <c r="I149" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>144</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5080</v>
+      </c>
       <c r="D150" s="89"/>
       <c r="F150" s="89"/>
       <c r="G150" s="89"/>
-    </row>
-    <row r="151" spans="3:7">
-      <c r="C151" s="3"/>
+      <c r="I150" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>145</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5081</v>
+      </c>
       <c r="D151" s="89"/>
       <c r="F151" s="89"/>
       <c r="G151" s="89"/>
-    </row>
-    <row r="152" spans="3:7">
-      <c r="C152" s="3"/>
+      <c r="I151" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>146</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>5082</v>
+      </c>
       <c r="D152" s="89"/>
       <c r="F152" s="89"/>
       <c r="G152" s="89"/>
-    </row>
-    <row r="153" spans="3:7">
-      <c r="C153" s="3"/>
+      <c r="I152" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>5083</v>
+      </c>
       <c r="D153" s="89"/>
       <c r="F153" s="89"/>
       <c r="G153" s="89"/>
-    </row>
-    <row r="154" spans="3:7">
-      <c r="C154" s="3"/>
+      <c r="I153" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>148</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5084</v>
+      </c>
       <c r="D154" s="89"/>
       <c r="F154" s="89"/>
       <c r="G154" s="89"/>
-    </row>
-    <row r="155" spans="3:7">
-      <c r="C155" s="3"/>
+      <c r="I154" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>149</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>5085</v>
+      </c>
       <c r="D155" s="89"/>
       <c r="F155" s="89"/>
       <c r="G155" s="89"/>
-    </row>
-    <row r="156" spans="3:7">
-      <c r="C156" s="3"/>
+      <c r="I155" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>150</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>5086</v>
+      </c>
       <c r="D156" s="89"/>
       <c r="F156" s="89"/>
       <c r="G156" s="89"/>
-    </row>
-    <row r="157" spans="3:7">
-      <c r="C157" s="3"/>
+      <c r="I156" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>151</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5087</v>
+      </c>
       <c r="D157" s="89"/>
       <c r="F157" s="89"/>
       <c r="G157" s="89"/>
-    </row>
-    <row r="158" spans="3:7">
-      <c r="C158" s="3"/>
+      <c r="I157" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>152</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5088</v>
+      </c>
       <c r="D158" s="89"/>
       <c r="F158" s="89"/>
       <c r="G158" s="89"/>
-    </row>
-    <row r="159" spans="3:7">
-      <c r="C159" s="3"/>
+      <c r="I158" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>153</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>5089</v>
+      </c>
       <c r="D159" s="89"/>
       <c r="F159" s="89"/>
       <c r="G159" s="89"/>
-    </row>
-    <row r="160" spans="3:7">
-      <c r="C160" s="3"/>
+      <c r="I159" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>154</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>5090</v>
+      </c>
       <c r="D160" s="89"/>
       <c r="F160" s="89"/>
       <c r="G160" s="89"/>
-    </row>
-    <row r="161" spans="3:10">
-      <c r="C161" s="3"/>
+      <c r="I160" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K160" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>155</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>5091</v>
+      </c>
       <c r="D161" s="89"/>
       <c r="F161" s="89"/>
       <c r="G161" s="89"/>
-    </row>
-    <row r="162" spans="3:10">
-      <c r="C162" s="3"/>
+      <c r="I161" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K161" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>156</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>5092</v>
+      </c>
       <c r="D162" s="89"/>
       <c r="F162" s="89"/>
       <c r="G162" s="89"/>
-    </row>
-    <row r="163" spans="3:10">
-      <c r="C163" s="3"/>
+      <c r="I162" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>157</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>5093</v>
+      </c>
       <c r="D163" s="89"/>
       <c r="F163" s="89"/>
       <c r="G163" s="89"/>
-    </row>
-    <row r="164" spans="3:10">
-      <c r="C164" s="3"/>
+      <c r="I163" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K163" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>158</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>5094</v>
+      </c>
       <c r="D164" s="89"/>
       <c r="F164" s="89"/>
       <c r="G164" s="89"/>
-    </row>
-    <row r="165" spans="3:10">
-      <c r="C165" s="3"/>
+      <c r="I164" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K164" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>5095</v>
+      </c>
       <c r="D165" s="89"/>
       <c r="F165" s="89"/>
       <c r="G165" s="89"/>
-    </row>
-    <row r="166" spans="3:10">
-      <c r="C166" s="3"/>
+      <c r="I165" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K165" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>160</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5096</v>
+      </c>
       <c r="D166" s="89"/>
       <c r="F166" s="89"/>
       <c r="G166" s="89"/>
-    </row>
-    <row r="167" spans="3:10">
-      <c r="C167" s="3"/>
+      <c r="I166" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K166" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>161</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>5097</v>
+      </c>
       <c r="D167" s="89"/>
       <c r="F167" s="89"/>
       <c r="G167" s="89"/>
-    </row>
-    <row r="168" spans="3:10">
-      <c r="C168" s="3"/>
+      <c r="I167" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K167" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>162</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>5098</v>
+      </c>
       <c r="D168" s="89"/>
       <c r="F168" s="89"/>
       <c r="G168" s="89"/>
-    </row>
-    <row r="169" spans="3:10">
-      <c r="C169" s="3"/>
+      <c r="I168" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K168" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>163</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>5099</v>
+      </c>
       <c r="D169" s="89"/>
       <c r="F169" s="89"/>
       <c r="G169" s="89"/>
-    </row>
-    <row r="170" spans="3:10">
-      <c r="C170" s="3"/>
+      <c r="I169" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>164</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>5100</v>
+      </c>
       <c r="D170" s="89"/>
       <c r="F170" s="89"/>
       <c r="G170" s="89"/>
-    </row>
-    <row r="171" spans="3:10">
-      <c r="C171" s="3"/>
+      <c r="I170" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>165</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>5101</v>
+      </c>
       <c r="D171" s="89"/>
       <c r="F171" s="89"/>
       <c r="G171" s="89"/>
-    </row>
-    <row r="172" spans="3:10">
-      <c r="C172" s="3"/>
+      <c r="I171" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>166</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5102</v>
+      </c>
       <c r="D172" s="89"/>
       <c r="F172" s="89"/>
       <c r="G172" s="89"/>
-    </row>
-    <row r="173" spans="3:10">
-      <c r="C173" s="3"/>
+      <c r="I172" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>167</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>5103</v>
+      </c>
       <c r="D173" s="89"/>
       <c r="F173" s="89"/>
       <c r="G173" s="89"/>
-    </row>
-    <row r="174" spans="3:10">
-      <c r="C174" s="3"/>
+      <c r="I173" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>168</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>5104</v>
+      </c>
       <c r="D174" s="89"/>
       <c r="F174" s="89"/>
       <c r="G174" s="89"/>
-    </row>
-    <row r="175" spans="3:10">
-      <c r="C175" s="3"/>
+      <c r="I174" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>169</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>5105</v>
+      </c>
       <c r="D175" s="89"/>
       <c r="F175" s="89"/>
       <c r="G175" s="89"/>
-      <c r="J175" s="89"/>
-    </row>
-    <row r="176" spans="3:10">
-      <c r="C176" s="3"/>
+      <c r="I175" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>170</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>5106</v>
+      </c>
       <c r="D176" s="89"/>
       <c r="F176" s="89"/>
       <c r="G176" s="89"/>
-    </row>
-    <row r="177" spans="3:10">
-      <c r="C177" s="3"/>
+      <c r="I176" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K176" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>171</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>5107</v>
+      </c>
       <c r="D177" s="89"/>
       <c r="F177" s="89"/>
       <c r="G177" s="89"/>
-      <c r="J177" s="89"/>
-    </row>
-    <row r="178" spans="3:10">
-      <c r="C178" s="3"/>
+      <c r="I177" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K177" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>172</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>5108</v>
+      </c>
       <c r="D178" s="89"/>
       <c r="F178" s="89"/>
       <c r="G178" s="89"/>
-      <c r="J178" s="89"/>
-    </row>
-    <row r="179" spans="3:10">
-      <c r="C179" s="3"/>
+      <c r="I178" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K178" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>173</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>5109</v>
+      </c>
       <c r="D179" s="89"/>
       <c r="F179" s="89"/>
       <c r="G179" s="89"/>
-      <c r="J179" s="89"/>
-    </row>
-    <row r="180" spans="3:10">
-      <c r="C180" s="3"/>
+      <c r="I179" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K179" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>174</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>5110</v>
+      </c>
       <c r="D180" s="89"/>
       <c r="F180" s="89"/>
       <c r="G180" s="89"/>
-    </row>
-    <row r="181" spans="3:10">
-      <c r="C181" s="3"/>
+      <c r="I180" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K180" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>175</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5111</v>
+      </c>
       <c r="D181" s="89"/>
       <c r="F181" s="89"/>
       <c r="G181" s="89"/>
-      <c r="J181" s="89"/>
-    </row>
-    <row r="182" spans="3:10">
-      <c r="C182" s="3"/>
+      <c r="I181" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K181" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>176</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>5112</v>
+      </c>
       <c r="D182" s="89"/>
       <c r="F182" s="89"/>
       <c r="G182" s="89"/>
-      <c r="J182" s="89"/>
-    </row>
-    <row r="183" spans="3:10">
-      <c r="C183" s="3"/>
+      <c r="I182" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K182" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>177</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>5113</v>
+      </c>
       <c r="D183" s="89"/>
       <c r="F183" s="89"/>
       <c r="G183" s="89"/>
-      <c r="J183" s="89"/>
-    </row>
-    <row r="184" spans="3:10">
-      <c r="C184" s="3"/>
+      <c r="I183" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K183" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>178</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>5114</v>
+      </c>
       <c r="D184" s="89"/>
       <c r="F184" s="89"/>
       <c r="G184" s="89"/>
-    </row>
-    <row r="185" spans="3:10">
-      <c r="C185" s="3"/>
+      <c r="I184" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K184" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>179</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>5115</v>
+      </c>
       <c r="D185" s="89"/>
       <c r="F185" s="89"/>
       <c r="G185" s="89"/>
-    </row>
-    <row r="186" spans="3:10">
-      <c r="C186" s="3"/>
+      <c r="I185" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K185" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>180</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>5116</v>
+      </c>
       <c r="D186" s="89"/>
       <c r="F186" s="89"/>
       <c r="G186" s="89"/>
-    </row>
-    <row r="187" spans="3:10">
-      <c r="C187" s="3"/>
+      <c r="I186" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K186" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>181</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>5117</v>
+      </c>
       <c r="D187" s="89"/>
       <c r="F187" s="89"/>
       <c r="G187" s="89"/>
-    </row>
-    <row r="188" spans="3:10">
-      <c r="C188" s="3"/>
+      <c r="I187" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>182</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>5118</v>
+      </c>
       <c r="D188" s="89"/>
       <c r="F188" s="89"/>
       <c r="G188" s="89"/>
-    </row>
-    <row r="189" spans="3:10">
-      <c r="C189" s="3"/>
+      <c r="I188" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>183</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>5119</v>
+      </c>
       <c r="D189" s="89"/>
       <c r="F189" s="89"/>
       <c r="G189" s="89"/>
-    </row>
-    <row r="190" spans="3:10">
-      <c r="C190" s="3"/>
+      <c r="I189" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>184</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>5120</v>
+      </c>
       <c r="D190" s="89"/>
       <c r="F190" s="89"/>
       <c r="G190" s="89"/>
-    </row>
-    <row r="191" spans="3:10">
-      <c r="C191" s="3"/>
+      <c r="I190" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>185</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>5121</v>
+      </c>
       <c r="D191" s="89"/>
       <c r="F191" s="89"/>
       <c r="G191" s="89"/>
-    </row>
-    <row r="192" spans="3:10">
-      <c r="C192" s="3"/>
+      <c r="I191" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>186</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>5122</v>
+      </c>
       <c r="D192" s="89"/>
       <c r="F192" s="89"/>
       <c r="G192" s="89"/>
-    </row>
-    <row r="193" spans="3:10">
-      <c r="C193" s="3"/>
+      <c r="I192" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>187</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5123</v>
+      </c>
       <c r="D193" s="89"/>
       <c r="F193" s="89"/>
       <c r="G193" s="89"/>
-    </row>
-    <row r="194" spans="3:10">
-      <c r="C194" s="3"/>
+      <c r="I193" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>188</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>5124</v>
+      </c>
       <c r="D194" s="89"/>
       <c r="F194" s="89"/>
       <c r="G194" s="89"/>
-    </row>
-    <row r="195" spans="3:10">
-      <c r="C195" s="3"/>
+      <c r="I194" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>189</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>5125</v>
+      </c>
       <c r="D195" s="89"/>
       <c r="F195" s="89"/>
       <c r="G195" s="89"/>
-    </row>
-    <row r="196" spans="3:10">
-      <c r="C196" s="3"/>
+      <c r="I195" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K195" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>190</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>5126</v>
+      </c>
       <c r="D196" s="89"/>
       <c r="F196" s="89"/>
       <c r="G196" s="89"/>
-    </row>
-    <row r="197" spans="3:10">
-      <c r="C197" s="3"/>
+      <c r="I196" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K196" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>191</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>5127</v>
+      </c>
       <c r="D197" s="89"/>
       <c r="F197" s="89"/>
       <c r="G197" s="89"/>
-    </row>
-    <row r="198" spans="3:10">
-      <c r="C198" s="3"/>
+      <c r="I197" t="str">
+        <f t="shared" si="8"/>
+        <v>---</v>
+      </c>
+      <c r="K197" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>192</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>5128</v>
+      </c>
       <c r="D198" s="89"/>
       <c r="F198" s="89"/>
       <c r="G198" s="89"/>
-    </row>
-    <row r="199" spans="3:10">
-      <c r="C199" s="3"/>
+      <c r="I198" t="str">
+        <f t="shared" ref="I198:I218" si="10">IF(F198="MB","MA","---")</f>
+        <v>---</v>
+      </c>
+      <c r="K198" t="str">
+        <f t="shared" ref="K198:K218" si="11">IF(F198="MB","2", IF(F198="","", "1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>193</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5129</v>
+      </c>
       <c r="D199" s="89"/>
       <c r="F199" s="89"/>
       <c r="G199" s="89"/>
-    </row>
-    <row r="200" spans="3:10">
-      <c r="C200" s="3"/>
+      <c r="I199" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K199" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>194</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5130</v>
+      </c>
       <c r="D200" s="89"/>
       <c r="F200" s="89"/>
       <c r="G200" s="89"/>
-    </row>
-    <row r="201" spans="3:10">
-      <c r="C201" s="3"/>
+      <c r="I200" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K200" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>195</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5131</v>
+      </c>
       <c r="D201" s="89"/>
       <c r="F201" s="89"/>
       <c r="G201" s="89"/>
-    </row>
-    <row r="202" spans="3:10">
-      <c r="C202" s="3"/>
+      <c r="I201" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K201" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>196</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5132</v>
+      </c>
       <c r="D202" s="89"/>
       <c r="F202" s="89"/>
       <c r="G202" s="89"/>
-    </row>
-    <row r="203" spans="3:10">
-      <c r="C203" s="3"/>
+      <c r="I202" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K202" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>197</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5133</v>
+      </c>
       <c r="D203" s="89"/>
       <c r="F203" s="89"/>
       <c r="G203" s="89"/>
-    </row>
-    <row r="204" spans="3:10">
-      <c r="C204" s="3"/>
+      <c r="I203" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K203" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>198</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>5134</v>
+      </c>
       <c r="D204" s="89"/>
       <c r="F204" s="89"/>
       <c r="G204" s="89"/>
-    </row>
-    <row r="205" spans="3:10">
-      <c r="C205" s="3"/>
+      <c r="I204" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K204" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>199</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>5135</v>
+      </c>
       <c r="D205" s="89"/>
       <c r="F205" s="89"/>
       <c r="G205" s="89"/>
-      <c r="J205" s="89"/>
-    </row>
-    <row r="206" spans="3:10">
-      <c r="C206" s="3"/>
+      <c r="I205" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K205" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>200</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>5136</v>
+      </c>
       <c r="D206" s="89"/>
       <c r="F206" s="89"/>
       <c r="G206" s="89"/>
-    </row>
-    <row r="207" spans="3:10">
-      <c r="C207" s="3"/>
+      <c r="I206" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K206" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>201</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>5137</v>
+      </c>
       <c r="D207" s="89"/>
       <c r="F207" s="89"/>
       <c r="G207" s="89"/>
-    </row>
-    <row r="208" spans="3:10">
-      <c r="C208" s="3"/>
+      <c r="I207" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K207" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>202</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>5138</v>
+      </c>
       <c r="D208" s="89"/>
       <c r="F208" s="89"/>
       <c r="G208" s="89"/>
-    </row>
-    <row r="209" spans="3:10">
-      <c r="C209" s="3"/>
+      <c r="I208" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K208" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>203</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>5139</v>
+      </c>
       <c r="D209" s="89"/>
       <c r="F209" s="89"/>
       <c r="G209" s="89"/>
-    </row>
-    <row r="210" spans="3:10">
-      <c r="C210" s="3"/>
+      <c r="I209" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K209" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>204</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>5140</v>
+      </c>
       <c r="D210" s="89"/>
       <c r="F210" s="89"/>
       <c r="G210" s="89"/>
-    </row>
-    <row r="211" spans="3:10">
-      <c r="C211" s="3"/>
+      <c r="I210" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K210" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>205</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>5141</v>
+      </c>
       <c r="D211" s="89"/>
       <c r="F211" s="89"/>
       <c r="G211" s="89"/>
-    </row>
-    <row r="212" spans="3:10">
-      <c r="C212" s="3"/>
+      <c r="I211" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K211" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>206</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>5142</v>
+      </c>
       <c r="D212" s="89"/>
       <c r="F212" s="89"/>
       <c r="G212" s="89"/>
-    </row>
-    <row r="213" spans="3:10">
-      <c r="C213" s="3"/>
+      <c r="I212" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K212" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>207</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>5143</v>
+      </c>
       <c r="D213" s="89"/>
       <c r="F213" s="89"/>
       <c r="G213" s="89"/>
-    </row>
-    <row r="214" spans="3:10">
-      <c r="C214" s="3"/>
+      <c r="I213" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K213" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214">
+        <v>208</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>5144</v>
+      </c>
       <c r="D214" s="89"/>
       <c r="F214" s="89"/>
       <c r="G214" s="89"/>
-    </row>
-    <row r="215" spans="3:10">
-      <c r="C215" s="3"/>
+      <c r="I214" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K214" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215">
+        <v>209</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>5145</v>
+      </c>
       <c r="D215" s="89"/>
       <c r="F215" s="89"/>
       <c r="G215" s="89"/>
-    </row>
-    <row r="216" spans="3:10">
-      <c r="C216" s="3"/>
+      <c r="I215" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K215" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
+        <v>210</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>5146</v>
+      </c>
       <c r="D216" s="89"/>
       <c r="F216" s="89"/>
       <c r="G216" s="89"/>
-    </row>
-    <row r="217" spans="3:10">
-      <c r="C217" s="3"/>
+      <c r="I216" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K216" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217">
+        <v>211</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5147</v>
+      </c>
       <c r="D217" s="89"/>
       <c r="F217" s="89"/>
       <c r="G217" s="89"/>
-    </row>
-    <row r="218" spans="3:10">
-      <c r="C218" s="3"/>
+      <c r="I217" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K217" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218">
+        <v>212</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5148</v>
+      </c>
       <c r="D218" s="89"/>
       <c r="F218" s="89"/>
       <c r="G218" s="89"/>
-    </row>
-    <row r="219" spans="3:10">
+      <c r="I218" t="str">
+        <f t="shared" si="10"/>
+        <v>---</v>
+      </c>
+      <c r="K218" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="C219" s="3"/>
       <c r="D219" s="89"/>
       <c r="F219" s="89"/>
       <c r="G219" s="89"/>
     </row>
-    <row r="220" spans="3:10">
+    <row r="220" spans="1:11">
       <c r="C220" s="3"/>
       <c r="D220" s="89"/>
       <c r="F220" s="89"/>
       <c r="G220" s="89"/>
     </row>
-    <row r="221" spans="3:10">
+    <row r="221" spans="1:11">
       <c r="C221" s="3"/>
       <c r="D221" s="89"/>
       <c r="F221" s="89"/>
       <c r="G221" s="89"/>
     </row>
-    <row r="222" spans="3:10">
+    <row r="222" spans="1:11">
       <c r="C222" s="3"/>
       <c r="D222" s="89"/>
       <c r="F222" s="89"/>
       <c r="G222" s="89"/>
     </row>
-    <row r="223" spans="3:10">
+    <row r="223" spans="1:11">
       <c r="C223" s="3"/>
       <c r="D223" s="89"/>
       <c r="F223" s="89"/>
       <c r="G223" s="89"/>
     </row>
-    <row r="224" spans="3:10">
+    <row r="224" spans="1:11">
       <c r="C224" s="3"/>
       <c r="D224" s="89"/>
       <c r="F224" s="89"/>
